--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fbn1-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fbn1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.56660662192072</v>
+        <v>12.36919033333333</v>
       </c>
       <c r="H2">
-        <v>8.56660662192072</v>
+        <v>37.107571</v>
       </c>
       <c r="I2">
-        <v>0.01862363357480387</v>
+        <v>0.02533349179988408</v>
       </c>
       <c r="J2">
-        <v>0.01862363357480387</v>
+        <v>0.02564912807677914</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>1060.058699225425</v>
+        <v>1709.658174187242</v>
       </c>
       <c r="R2">
-        <v>1060.058699225425</v>
+        <v>15386.92356768518</v>
       </c>
       <c r="S2">
-        <v>0.003933733500731507</v>
+        <v>0.005698068893862527</v>
       </c>
       <c r="T2">
-        <v>0.003933733500731507</v>
+        <v>0.006352260504097364</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.56660662192072</v>
+        <v>12.36919033333333</v>
       </c>
       <c r="H3">
-        <v>8.56660662192072</v>
+        <v>37.107571</v>
       </c>
       <c r="I3">
-        <v>0.01862363357480387</v>
+        <v>0.02533349179988408</v>
       </c>
       <c r="J3">
-        <v>0.01862363357480387</v>
+        <v>0.02564912807677914</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>1187.230763500238</v>
+        <v>1829.580500797477</v>
       </c>
       <c r="R3">
-        <v>1187.230763500238</v>
+        <v>16466.22450717729</v>
       </c>
       <c r="S3">
-        <v>0.004405651716166696</v>
+        <v>0.006097754450457633</v>
       </c>
       <c r="T3">
-        <v>0.004405651716166696</v>
+        <v>0.006797833701352307</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.56660662192072</v>
+        <v>12.36919033333333</v>
       </c>
       <c r="H4">
-        <v>8.56660662192072</v>
+        <v>37.107571</v>
       </c>
       <c r="I4">
-        <v>0.01862363357480387</v>
+        <v>0.02533349179988408</v>
       </c>
       <c r="J4">
-        <v>0.01862363357480387</v>
+        <v>0.02564912807677914</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>610.7981250836689</v>
+        <v>918.6921403508325</v>
       </c>
       <c r="R4">
-        <v>610.7981250836689</v>
+        <v>8268.229263157491</v>
       </c>
       <c r="S4">
-        <v>0.002266588679080945</v>
+        <v>0.003061881718231561</v>
       </c>
       <c r="T4">
-        <v>0.002266588679080945</v>
+        <v>0.003413414381123024</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.56660662192072</v>
+        <v>12.36919033333333</v>
       </c>
       <c r="H5">
-        <v>8.56660662192072</v>
+        <v>37.107571</v>
       </c>
       <c r="I5">
-        <v>0.01862363357480387</v>
+        <v>0.02533349179988408</v>
       </c>
       <c r="J5">
-        <v>0.01862363357480387</v>
+        <v>0.02564912807677914</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>726.6780112244227</v>
+        <v>1049.611811009848</v>
       </c>
       <c r="R5">
-        <v>726.6780112244227</v>
+        <v>9446.506299088633</v>
       </c>
       <c r="S5">
-        <v>0.002696603158945045</v>
+        <v>0.0034982199958124</v>
       </c>
       <c r="T5">
-        <v>0.002696603158945045</v>
+        <v>0.003899848374591955</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.56660662192072</v>
+        <v>12.36919033333333</v>
       </c>
       <c r="H6">
-        <v>8.56660662192072</v>
+        <v>37.107571</v>
       </c>
       <c r="I6">
-        <v>0.01862363357480387</v>
+        <v>0.02533349179988408</v>
       </c>
       <c r="J6">
-        <v>0.01862363357480387</v>
+        <v>0.02564912807677914</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>1433.913164661435</v>
+        <v>2093.560860316344</v>
       </c>
       <c r="R6">
-        <v>1433.913164661435</v>
+        <v>12561.36516189806</v>
       </c>
       <c r="S6">
-        <v>0.005321056519879677</v>
+        <v>0.006977566741519955</v>
       </c>
       <c r="T6">
-        <v>0.005321056519879677</v>
+        <v>0.00518577111561449</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>433.242395922645</v>
+        <v>457.3002013333333</v>
       </c>
       <c r="H7">
-        <v>433.242395922645</v>
+        <v>1371.900604</v>
       </c>
       <c r="I7">
-        <v>0.9418604106423172</v>
+        <v>0.9366022017903033</v>
       </c>
       <c r="J7">
-        <v>0.9418604106423172</v>
+        <v>0.9482715616337878</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>53610.76922755846</v>
+        <v>63207.61555104251</v>
       </c>
       <c r="R7">
-        <v>53610.76922755846</v>
+        <v>568868.5399593826</v>
       </c>
       <c r="S7">
-        <v>0.1989422652392062</v>
+        <v>0.2106627824581569</v>
       </c>
       <c r="T7">
-        <v>0.1989422652392062</v>
+        <v>0.2348488404788477</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>433.242395922645</v>
+        <v>457.3002013333333</v>
       </c>
       <c r="H8">
-        <v>433.242395922645</v>
+        <v>1371.900604</v>
       </c>
       <c r="I8">
-        <v>0.9418604106423172</v>
+        <v>0.9366022017903033</v>
       </c>
       <c r="J8">
-        <v>0.9418604106423172</v>
+        <v>0.9482715616337878</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>60042.29249604435</v>
+        <v>67641.2528890851</v>
       </c>
       <c r="R8">
-        <v>60042.29249604435</v>
+        <v>608771.2760017659</v>
       </c>
       <c r="S8">
-        <v>0.2228087724057089</v>
+        <v>0.2254395205125799</v>
       </c>
       <c r="T8">
-        <v>0.2228087724057089</v>
+        <v>0.2513220862873721</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>433.242395922645</v>
+        <v>457.3002013333333</v>
       </c>
       <c r="H9">
-        <v>433.242395922645</v>
+        <v>1371.900604</v>
       </c>
       <c r="I9">
-        <v>0.9418604106423172</v>
+        <v>0.9366022017903033</v>
       </c>
       <c r="J9">
-        <v>0.9418604106423172</v>
+        <v>0.9482715616337878</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>30890.13594474784</v>
+        <v>33964.88286008695</v>
       </c>
       <c r="R9">
-        <v>30890.13594474784</v>
+        <v>305683.9457407826</v>
       </c>
       <c r="S9">
-        <v>0.1146290886502737</v>
+        <v>0.1132005481743452</v>
       </c>
       <c r="T9">
-        <v>0.1146290886502737</v>
+        <v>0.1261970300121494</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>433.242395922645</v>
+        <v>457.3002013333333</v>
       </c>
       <c r="H10">
-        <v>433.242395922645</v>
+        <v>1371.900604</v>
       </c>
       <c r="I10">
-        <v>0.9418604106423172</v>
+        <v>0.9366022017903033</v>
       </c>
       <c r="J10">
-        <v>0.9418604106423172</v>
+        <v>0.9482715616337878</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>36750.57540772008</v>
+        <v>38805.10199630001</v>
       </c>
       <c r="R10">
-        <v>36750.57540772008</v>
+        <v>349245.9179667001</v>
       </c>
       <c r="S10">
-        <v>0.136376381570324</v>
+        <v>0.1293323706146088</v>
       </c>
       <c r="T10">
-        <v>0.136376381570324</v>
+        <v>0.1441809365698208</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>433.242395922645</v>
+        <v>457.3002013333333</v>
       </c>
       <c r="H11">
-        <v>433.242395922645</v>
+        <v>1371.900604</v>
       </c>
       <c r="I11">
-        <v>0.9418604106423172</v>
+        <v>0.9366022017903033</v>
       </c>
       <c r="J11">
-        <v>0.9418604106423172</v>
+        <v>0.9482715616337878</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N11">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O11">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P11">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q11">
-        <v>72517.85945362526</v>
+        <v>77400.8465490439</v>
       </c>
       <c r="R11">
-        <v>72517.85945362526</v>
+        <v>464405.0792942634</v>
       </c>
       <c r="S11">
-        <v>0.2691039027768045</v>
+        <v>0.2579669800306125</v>
       </c>
       <c r="T11">
-        <v>0.2691039027768045</v>
+        <v>0.1917226682855979</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.235739858973545</v>
+        <v>0.4533563333333333</v>
       </c>
       <c r="H12">
-        <v>0.235739858973545</v>
+        <v>1.360069</v>
       </c>
       <c r="I12">
-        <v>0.0005124937966995016</v>
+        <v>0.0009285247169311226</v>
       </c>
       <c r="J12">
-        <v>0.0005124937966995016</v>
+        <v>0.0009400934373811999</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N12">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O12">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P12">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q12">
-        <v>29.17118752945045</v>
+        <v>62.66249772340711</v>
       </c>
       <c r="R12">
-        <v>29.17118752945045</v>
+        <v>563.962479510664</v>
       </c>
       <c r="S12">
-        <v>0.0001082503051242052</v>
+        <v>0.0002088459754589357</v>
       </c>
       <c r="T12">
-        <v>0.0001082503051242052</v>
+        <v>0.0002328234470412304</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.235739858973545</v>
+        <v>0.4533563333333333</v>
       </c>
       <c r="H13">
-        <v>0.235739858973545</v>
+        <v>1.360069</v>
       </c>
       <c r="I13">
-        <v>0.0005124937966995016</v>
+        <v>0.0009285247169311226</v>
       </c>
       <c r="J13">
-        <v>0.0005124937966995016</v>
+        <v>0.0009400934373811999</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N13">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P13">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q13">
-        <v>32.67076744722158</v>
+        <v>67.05789829625665</v>
       </c>
       <c r="R13">
-        <v>32.67076744722158</v>
+        <v>603.5210846663099</v>
       </c>
       <c r="S13">
-        <v>0.0001212367697144043</v>
+        <v>0.0002234952753355767</v>
       </c>
       <c r="T13">
-        <v>0.0001212367697144043</v>
+        <v>0.0002491546235770736</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.235739858973545</v>
+        <v>0.4533563333333333</v>
       </c>
       <c r="H14">
-        <v>0.235739858973545</v>
+        <v>1.360069</v>
       </c>
       <c r="I14">
-        <v>0.0005124937966995016</v>
+        <v>0.0009285247169311226</v>
       </c>
       <c r="J14">
-        <v>0.0005124937966995016</v>
+        <v>0.0009400934373811999</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N14">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O14">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P14">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q14">
-        <v>16.80822643356605</v>
+        <v>33.67196146130977</v>
       </c>
       <c r="R14">
-        <v>16.80822643356605</v>
+        <v>303.047653151788</v>
       </c>
       <c r="S14">
-        <v>6.237303977403532E-05</v>
+        <v>0.0001122242791540702</v>
       </c>
       <c r="T14">
-        <v>6.237303977403532E-05</v>
+        <v>0.0001251086761760723</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.235739858973545</v>
+        <v>0.4533563333333333</v>
       </c>
       <c r="H15">
-        <v>0.235739858973545</v>
+        <v>1.360069</v>
       </c>
       <c r="I15">
-        <v>0.0005124937966995016</v>
+        <v>0.0009285247169311226</v>
       </c>
       <c r="J15">
-        <v>0.0005124937966995016</v>
+        <v>0.0009400934373811999</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N15">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O15">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P15">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q15">
-        <v>19.9970629498583</v>
+        <v>38.47043737215656</v>
       </c>
       <c r="R15">
-        <v>19.9970629498583</v>
+        <v>346.233936349409</v>
       </c>
       <c r="S15">
-        <v>7.420637791055604E-05</v>
+        <v>0.0001282169768397014</v>
       </c>
       <c r="T15">
-        <v>7.420637791055604E-05</v>
+        <v>0.0001429374851558704</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.235739858973545</v>
+        <v>0.4533563333333333</v>
       </c>
       <c r="H16">
-        <v>0.235739858973545</v>
+        <v>1.360069</v>
       </c>
       <c r="I16">
-        <v>0.0005124937966995016</v>
+        <v>0.0009285247169311226</v>
       </c>
       <c r="J16">
-        <v>0.0005124937966995016</v>
+        <v>0.0009400934373811999</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N16">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O16">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P16">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q16">
-        <v>39.45908831072325</v>
+        <v>76.7333228501965</v>
       </c>
       <c r="R16">
-        <v>39.45908831072325</v>
+        <v>460.399937101179</v>
       </c>
       <c r="S16">
-        <v>0.0001464273041763007</v>
+        <v>0.0002557422101428386</v>
       </c>
       <c r="T16">
-        <v>0.0001464273041763007</v>
+        <v>0.0001900692054309533</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>17.9410378961001</v>
+        <v>0.106441</v>
       </c>
       <c r="H17">
-        <v>17.9410378961001</v>
+        <v>0.319323</v>
       </c>
       <c r="I17">
-        <v>0.0390034619861795</v>
+        <v>0.0002180031293887273</v>
       </c>
       <c r="J17">
-        <v>0.0390034619861795</v>
+        <v>0.0002207192846134107</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N17">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O17">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P17">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q17">
-        <v>2220.080147748139</v>
+        <v>14.71217766196533</v>
       </c>
       <c r="R17">
-        <v>2220.080147748139</v>
+        <v>132.409598957688</v>
       </c>
       <c r="S17">
-        <v>0.008238415153695802</v>
+        <v>4.903377947844832E-05</v>
       </c>
       <c r="T17">
-        <v>0.008238415153695802</v>
+        <v>5.466331603730901E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>17.9410378961001</v>
+        <v>0.106441</v>
       </c>
       <c r="H18">
-        <v>17.9410378961001</v>
+        <v>0.319323</v>
       </c>
       <c r="I18">
-        <v>0.0390034619861795</v>
+        <v>0.0002180031293887273</v>
       </c>
       <c r="J18">
-        <v>0.0390034619861795</v>
+        <v>0.0002207192846134107</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N18">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P18">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q18">
-        <v>2486.416507660056</v>
+        <v>15.74414919953</v>
       </c>
       <c r="R18">
-        <v>2486.416507660056</v>
+        <v>141.69734279577</v>
       </c>
       <c r="S18">
-        <v>0.009226753122351628</v>
+        <v>5.247320673141023E-05</v>
       </c>
       <c r="T18">
-        <v>0.009226753122351628</v>
+        <v>5.849762171220862E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>17.9410378961001</v>
+        <v>0.106441</v>
       </c>
       <c r="H19">
-        <v>17.9410378961001</v>
+        <v>0.319323</v>
       </c>
       <c r="I19">
-        <v>0.0390034619861795</v>
+        <v>0.0002180031293887273</v>
       </c>
       <c r="J19">
-        <v>0.0390034619861795</v>
+        <v>0.0002207192846134107</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N19">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O19">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P19">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q19">
-        <v>1279.194060452378</v>
+        <v>7.905651661577333</v>
       </c>
       <c r="R19">
-        <v>1279.194060452378</v>
+        <v>71.150864954196</v>
       </c>
       <c r="S19">
-        <v>0.004746914989910579</v>
+        <v>2.634851135664085E-05</v>
       </c>
       <c r="T19">
-        <v>0.004746914989910579</v>
+        <v>2.937356693121594E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>17.9410378961001</v>
+        <v>0.106441</v>
       </c>
       <c r="H20">
-        <v>17.9410378961001</v>
+        <v>0.319323</v>
       </c>
       <c r="I20">
-        <v>0.0390034619861795</v>
+        <v>0.0002180031293887273</v>
       </c>
       <c r="J20">
-        <v>0.0390034619861795</v>
+        <v>0.0002207192846134107</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N20">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O20">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P20">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q20">
-        <v>1521.881220071351</v>
+        <v>9.032259005233669</v>
       </c>
       <c r="R20">
-        <v>1521.881220071351</v>
+        <v>81.29033104710302</v>
       </c>
       <c r="S20">
-        <v>0.005647493996231735</v>
+        <v>3.010334747382962E-05</v>
       </c>
       <c r="T20">
-        <v>0.005647493996231735</v>
+        <v>3.355949335837225E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.106441</v>
+      </c>
+      <c r="H21">
+        <v>0.319323</v>
+      </c>
+      <c r="I21">
+        <v>0.0002180031293887273</v>
+      </c>
+      <c r="J21">
+        <v>0.0002207192846134107</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>169.2560955</v>
+      </c>
+      <c r="N21">
+        <v>338.512191</v>
+      </c>
+      <c r="O21">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P21">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q21">
+        <v>18.0157880611155</v>
+      </c>
+      <c r="R21">
+        <v>108.094728366693</v>
+      </c>
+      <c r="S21">
+        <v>6.004428434839824E-05</v>
+      </c>
+      <c r="T21">
+        <v>4.46252865743049E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>18.02527</v>
+      </c>
+      <c r="H22">
+        <v>36.05054</v>
+      </c>
+      <c r="I22">
+        <v>0.03691777856349285</v>
+      </c>
+      <c r="J22">
+        <v>0.02491849756743844</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>138.2190853333333</v>
+      </c>
+      <c r="N22">
+        <v>414.657256</v>
+      </c>
+      <c r="O22">
+        <v>0.2249223651785973</v>
+      </c>
+      <c r="P22">
+        <v>0.2476599003709697</v>
+      </c>
+      <c r="Q22">
+        <v>2491.436332286373</v>
+      </c>
+      <c r="R22">
+        <v>14948.61799371824</v>
+      </c>
+      <c r="S22">
+        <v>0.008303634071640533</v>
+      </c>
+      <c r="T22">
+        <v>0.006171312624946057</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>18.02527</v>
+      </c>
+      <c r="H23">
+        <v>36.05054</v>
+      </c>
+      <c r="I23">
+        <v>0.03691777856349285</v>
+      </c>
+      <c r="J23">
+        <v>0.02491849756743844</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>147.91433</v>
+      </c>
+      <c r="N23">
+        <v>443.74299</v>
+      </c>
+      <c r="O23">
+        <v>0.2406993279341593</v>
+      </c>
+      <c r="P23">
+        <v>0.2650317656414439</v>
+      </c>
+      <c r="Q23">
+        <v>2666.195735119099</v>
+      </c>
+      <c r="R23">
+        <v>15997.1744107146</v>
+      </c>
+      <c r="S23">
+        <v>0.008886084489054844</v>
+      </c>
+      <c r="T23">
+        <v>0.006604193407430235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>18.02527</v>
+      </c>
+      <c r="H24">
+        <v>36.05054</v>
+      </c>
+      <c r="I24">
+        <v>0.03691777856349285</v>
+      </c>
+      <c r="J24">
+        <v>0.02491849756743844</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>74.27261733333333</v>
+      </c>
+      <c r="N24">
+        <v>222.817852</v>
+      </c>
+      <c r="O24">
+        <v>0.1208629960061633</v>
+      </c>
+      <c r="P24">
+        <v>0.1330811078998542</v>
+      </c>
+      <c r="Q24">
+        <v>1338.783981040013</v>
+      </c>
+      <c r="R24">
+        <v>8032.70388624008</v>
+      </c>
+      <c r="S24">
+        <v>0.00446199332307586</v>
+      </c>
+      <c r="T24">
+        <v>0.00331618126347453</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>17.9410378961001</v>
-      </c>
-      <c r="H21">
-        <v>17.9410378961001</v>
-      </c>
-      <c r="I21">
-        <v>0.0390034619861795</v>
-      </c>
-      <c r="J21">
-        <v>0.0390034619861795</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>167.384032901926</v>
-      </c>
-      <c r="N21">
-        <v>167.384032901926</v>
-      </c>
-      <c r="O21">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="P21">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="Q21">
-        <v>3003.04327749552</v>
-      </c>
-      <c r="R21">
-        <v>3003.04327749552</v>
-      </c>
-      <c r="S21">
-        <v>0.01114388472398976</v>
-      </c>
-      <c r="T21">
-        <v>0.01114388472398976</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>18.02527</v>
+      </c>
+      <c r="H25">
+        <v>36.05054</v>
+      </c>
+      <c r="I25">
+        <v>0.03691777856349285</v>
+      </c>
+      <c r="J25">
+        <v>0.02491849756743844</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>84.85695366666668</v>
+      </c>
+      <c r="N25">
+        <v>254.570861</v>
+      </c>
+      <c r="O25">
+        <v>0.138086767645209</v>
+      </c>
+      <c r="P25">
+        <v>0.1520460408212704</v>
+      </c>
+      <c r="Q25">
+        <v>1529.569501219157</v>
+      </c>
+      <c r="R25">
+        <v>9177.417007314942</v>
+      </c>
+      <c r="S25">
+        <v>0.005097856710474316</v>
+      </c>
+      <c r="T25">
+        <v>0.003788758898343474</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>18.02527</v>
+      </c>
+      <c r="H26">
+        <v>36.05054</v>
+      </c>
+      <c r="I26">
+        <v>0.03691777856349285</v>
+      </c>
+      <c r="J26">
+        <v>0.02491849756743844</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>169.2560955</v>
+      </c>
+      <c r="N26">
+        <v>338.512191</v>
+      </c>
+      <c r="O26">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P26">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q26">
+        <v>3050.886820533285</v>
+      </c>
+      <c r="R26">
+        <v>12203.54728213314</v>
+      </c>
+      <c r="S26">
+        <v>0.0101682099692473</v>
+      </c>
+      <c r="T26">
+        <v>0.005038051373244149</v>
       </c>
     </row>
   </sheetData>
